--- a/medicine/Psychotrope/Les_Filles_du_maître_de_chai/Les_Filles_du_maître_de_chai.xlsx
+++ b/medicine/Psychotrope/Les_Filles_du_maître_de_chai/Les_Filles_du_maître_de_chai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Filles_du_ma%C3%AEtre_de_chai</t>
+          <t>Les_Filles_du_maître_de_chai</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Filles du maître de chai est un téléfilm réalisé par François Luciani en trois épisodes (90 min), diffusé en 1997.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Filles_du_ma%C3%AEtre_de_chai</t>
+          <t>Les_Filles_du_maître_de_chai</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1929, au château Saint-Espérit (siège d'un grand cru du Bordelais), on fête la gerbaude (ou fête de fin des vendanges). Jean Burton, le fils des chatelains, et Maddy, la fille du maître de chai, s'aiment en secret depuis plus de six ans. Mais leur union semble impossible. Jean décide qu'il fera, cette nuit, un enfant à Maddy. Mais Juliette, la sœur de Maddy, est aussi amoureuse de Jean. Elle surprend leur conversation et va retrouver Jean à la place de Maddy (partie aider les autres à éteindre un incendie). Elle se retrouve avec lui dans une grange et ils font l'amour. Se sentant méprisé par la supercherie de Juliette, Jean s'exile à Bordeaux où il s'initie au commerce de vin. Peu après Juliette découvre qu'elle est enceinte...
-Autre remarque
-Maddy a un rêve et un but : devenir maître de chai à la place de son père. Jean se perfectionne dans tous les métiers du vin (il part en Australie, à Londres). Juliette se lance dans la haute couture.
 </t>
         </is>
       </c>
@@ -526,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Filles_du_ma%C3%AEtre_de_chai</t>
+          <t>Les_Filles_du_maître_de_chai</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fiche technique</t>
+          <t>Synopsis</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">genre : drame
+          <t>Autre remarque</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maddy a un rêve et un but : devenir maître de chai à la place de son père. Jean se perfectionne dans tous les métiers du vin (il part en Australie, à Londres). Juliette se lance dans la haute couture.
 </t>
         </is>
       </c>
@@ -557,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Filles_du_ma%C3%AEtre_de_chai</t>
+          <t>Les_Filles_du_maître_de_chai</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +590,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">genre : drame
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Filles_du_maître_de_chai</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Filles_du_ma%C3%AEtre_de_chai</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sophie de La Rochefoucauld : Maddy, fille de Léon
 Frédéric Deban : Jean Burton
